--- a/uploader/templates/ban/ban.xlsx
+++ b/uploader/templates/ban/ban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimsang-yun/marketfit-upload/data/ban_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimsang-yun/asmama_crwaling/uploader/templates/ban/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B811A129-CD18-0E4D-B91A-7840AE28A335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C7A0DD-E947-B140-84E5-B0A0F3412B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2920" windowWidth="28800" windowHeight="17500" xr2:uid="{E7FBD66D-C732-4E47-9A6D-32DB07996244}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="18000" xr2:uid="{E7FBD66D-C732-4E47-9A6D-32DB07996244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="1760">
   <si>
     <t>주의 브랜드</t>
   </si>
@@ -5319,6 +5319,9 @@
   <si>
     <t>keyword</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>닥터하스킨</t>
   </si>
 </sst>
 </file>
@@ -5329,7 +5332,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5490,14 +5493,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -5663,8 +5666,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5680,7 +5683,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5998,13 +6001,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABD349E-CC79-AD42-922D-F75612FF4529}">
   <dimension ref="A1:I1638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423:B425"/>
+    <sheetView tabSelected="1" topLeftCell="A1198" workbookViewId="0">
+      <selection activeCell="L1218" sqref="L1218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -6201,7 +6204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -7669,7 +7672,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="19">
+    <row r="85" spans="1:9" ht="17">
       <c r="A85" s="10" t="s">
         <v>267</v>
       </c>
@@ -11302,7 +11305,7 @@
       </c>
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" ht="18">
       <c r="A276" s="1" t="s">
         <v>795</v>
       </c>
@@ -19509,7 +19512,7 @@
       </c>
       <c r="I802" s="1"/>
     </row>
-    <row r="803" spans="1:9">
+    <row r="803" spans="1:9" ht="18">
       <c r="A803" s="15" t="s">
         <v>1362</v>
       </c>
@@ -25194,7 +25197,7 @@
       </c>
       <c r="I1181" s="1"/>
     </row>
-    <row r="1182" spans="1:9">
+    <row r="1182" spans="1:9" ht="18">
       <c r="A1182" s="15" t="s">
         <v>1719</v>
       </c>
@@ -25720,7 +25723,9 @@
       <c r="I1216" s="1"/>
     </row>
     <row r="1217" spans="1:9">
-      <c r="A1217" s="1"/>
+      <c r="A1217" s="1" t="s">
+        <v>1759</v>
+      </c>
       <c r="B1217" s="1"/>
       <c r="C1217" s="1"/>
       <c r="D1217" s="1"/>

--- a/uploader/templates/ban/ban.xlsx
+++ b/uploader/templates/ban/ban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimsang-yun/asmama_crwaling/uploader/templates/ban/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C7A0DD-E947-B140-84E5-B0A0F3412B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6B5FFF-BF01-674E-8266-D0B0ACCB5678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="18000" xr2:uid="{E7FBD66D-C732-4E47-9A6D-32DB07996244}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="17380" xr2:uid="{E7FBD66D-C732-4E47-9A6D-32DB07996244}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3591" uniqueCount="1760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="1761">
   <si>
     <t>주의 브랜드</t>
   </si>
@@ -5322,6 +5322,9 @@
   </si>
   <si>
     <t>닥터하스킨</t>
+  </si>
+  <si>
+    <t>달바</t>
   </si>
 </sst>
 </file>
@@ -6002,7 +6005,7 @@
   <dimension ref="A1:I1638"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1198" workbookViewId="0">
-      <selection activeCell="L1218" sqref="L1218"/>
+      <selection activeCell="D1221" sqref="D1221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25738,7 +25741,9 @@
       <c r="I1217" s="1"/>
     </row>
     <row r="1218" spans="1:9">
-      <c r="A1218" s="1"/>
+      <c r="A1218" s="1" t="s">
+        <v>1760</v>
+      </c>
       <c r="B1218" s="1"/>
       <c r="C1218" s="1"/>
       <c r="D1218" s="1"/>
